--- a/plots/experiment7_conditional.xlsx
+++ b/plots/experiment7_conditional.xlsx
@@ -555,25 +555,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0012</v>
+        <v>0.0009</v>
       </c>
       <c r="D4" t="n">
-        <v>508.5162</v>
+        <v>572.2</v>
       </c>
       <c r="E4" t="n">
-        <v>16.7674</v>
+        <v>0.5236</v>
       </c>
       <c r="F4" t="n">
-        <v>0.55</v>
+        <v>0.5446</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.0353</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5002</v>
+        <v>0.4523</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0477</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="5">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="D5" t="n">
-        <v>478.4193</v>
+        <v>420</v>
       </c>
       <c r="E5" t="n">
-        <v>3.9519</v>
+        <v>4.0459</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5511</v>
+        <v>0.3498</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0044</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4654</v>
+        <v>0.595</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="6">
@@ -613,25 +613,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0146</v>
+        <v>0.0149</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6108</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-25.9108</v>
+        <v>1.8161</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3197</v>
+        <v>0.6631</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4817</v>
+        <v>0.4454</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="7">
@@ -645,22 +645,22 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>3.1412</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7.408</v>
+        <v>7.7872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5508999999999999</v>
+        <v>0.3446</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3747</v>
+        <v>0.4268</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="8">
@@ -675,25 +675,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0168</v>
+        <v>0.0171</v>
       </c>
       <c r="D8" t="n">
-        <v>148.9547</v>
+        <v>155</v>
       </c>
       <c r="E8" t="n">
-        <v>2.2989</v>
+        <v>1.2684</v>
       </c>
       <c r="F8" t="n">
-        <v>86021.67389999999</v>
+        <v>0.2929</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>68590.1407</v>
+        <v>58069.6953</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -704,25 +704,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0115</v>
+        <v>0.0119</v>
       </c>
       <c r="D9" t="n">
-        <v>166.5822</v>
+        <v>162.4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1339</v>
+        <v>2.5859</v>
       </c>
       <c r="F9" t="n">
-        <v>114613.889</v>
+        <v>0.7033</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004</v>
+        <v>0.0083</v>
       </c>
       <c r="H9" t="n">
-        <v>113051.0417</v>
+        <v>58398.2627</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0013</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="10">
@@ -736,22 +736,22 @@
         <v>0.0045</v>
       </c>
       <c r="D10" t="n">
-        <v>53.0471</v>
+        <v>60.2</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1748</v>
+        <v>0.6175</v>
       </c>
       <c r="F10" t="n">
-        <v>2.089</v>
+        <v>0.5819</v>
       </c>
       <c r="G10" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.3825</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.1426</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0239</v>
       </c>
     </row>
     <row r="11">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0437</v>
+        <v>0.0441</v>
       </c>
       <c r="D11" t="n">
-        <v>601.4115</v>
+        <v>617.6</v>
       </c>
       <c r="E11" t="n">
-        <v>1.3951</v>
+        <v>2.3734</v>
       </c>
       <c r="F11" t="n">
-        <v>6283.6503</v>
+        <v>0.4546</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0031</v>
+        <v>0.0018</v>
       </c>
       <c r="H11" t="n">
-        <v>4444.9265</v>
+        <v>4413.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0031</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="12">
@@ -798,22 +798,22 @@
         <v>0.0245</v>
       </c>
       <c r="D12" t="n">
-        <v>29.4255</v>
+        <v>26.6</v>
       </c>
       <c r="E12" t="n">
-        <v>2.6811</v>
+        <v>2.1395</v>
       </c>
       <c r="F12" t="n">
-        <v>1.594</v>
+        <v>0.4814</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2259</v>
+        <v>0.1672</v>
       </c>
       <c r="H12" t="n">
-        <v>1.515</v>
+        <v>1.5701</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.1601</v>
       </c>
     </row>
     <row r="13">
@@ -827,22 +827,22 @@
         <v>0.0091</v>
       </c>
       <c r="D13" t="n">
-        <v>8.411199999999999</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5188</v>
+        <v>1.3413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7977</v>
+        <v>0.3617</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2831</v>
+        <v>0.1718</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7688</v>
+        <v>0.7</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1621</v>
+        <v>0.1439</v>
       </c>
     </row>
     <row r="14">
@@ -853,25 +853,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0051</v>
+        <v>0.005</v>
       </c>
       <c r="D14" t="n">
-        <v>4154.2697</v>
+        <v>4159</v>
       </c>
       <c r="E14" t="n">
-        <v>13.0684</v>
+        <v>3.7305</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2559</v>
+        <v>0.5851</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2025</v>
+        <v>0.0069</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2794</v>
+        <v>0.5726</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2574</v>
+        <v>0.1525</v>
       </c>
     </row>
     <row r="15">
@@ -885,22 +885,22 @@
         <v>0.0718</v>
       </c>
       <c r="D15" t="n">
-        <v>1486.0761</v>
+        <v>1472.8</v>
       </c>
       <c r="E15" t="n">
-        <v>16.1801</v>
+        <v>16.9497</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9927</v>
+        <v>0.4899</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4948</v>
+        <v>0.7477</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9388</v>
+        <v>0.9323</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6129</v>
+        <v>0.4299</v>
       </c>
     </row>
     <row r="16">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0391</v>
+        <v>0.0392</v>
       </c>
       <c r="D16" t="n">
-        <v>68.9068</v>
+        <v>74.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2887</v>
+        <v>0.8615</v>
       </c>
       <c r="F16" t="n">
-        <v>2.5567</v>
+        <v>0.3218</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1512</v>
+        <v>0.1149</v>
       </c>
       <c r="H16" t="n">
-        <v>2.7311</v>
+        <v>2.522</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0882</v>
+        <v>0.1339</v>
       </c>
     </row>
     <row r="17">
@@ -947,22 +947,22 @@
         <v>0.0049</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.8939</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.778</v>
+        <v>0.2818</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5053</v>
+        <v>0.5255</v>
       </c>
       <c r="G17" t="n">
-        <v>0.118</v>
+        <v>0.3647</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4864</v>
+        <v>0.4981</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2481</v>
+        <v>0.2323</v>
       </c>
     </row>
     <row r="18">
@@ -973,25 +973,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0009</v>
+        <v>0.0013</v>
       </c>
       <c r="D18" t="n">
-        <v>7.6487</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1.7074</v>
+        <v>1.8762</v>
       </c>
       <c r="F18" t="n">
-        <v>0.482</v>
+        <v>0.4877</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0366</v>
+        <v>0.0475</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4962</v>
+        <v>0.5083</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="19">
@@ -1002,25 +1002,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0058</v>
+        <v>0.0059</v>
       </c>
       <c r="D19" t="n">
-        <v>3.0299</v>
+        <v>4.4</v>
       </c>
       <c r="E19" t="n">
-        <v>1.2246</v>
+        <v>0.3265</v>
       </c>
       <c r="F19" t="n">
-        <v>2.6395</v>
+        <v>0.2638</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0182</v>
+        <v>0.0041</v>
       </c>
       <c r="H19" t="n">
-        <v>2.513</v>
+        <v>2.5904</v>
       </c>
       <c r="I19" t="n">
-        <v>0.009299999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1035,25 +1035,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0546</v>
+        <v>0.0359</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4447</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>5.7306</v>
+        <v>0.797</v>
       </c>
       <c r="F20" t="n">
-        <v>3.0314</v>
+        <v>0.3089</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1319</v>
+        <v>0.0862</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7474</v>
+        <v>2.8796</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1357</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="21">
@@ -1064,25 +1064,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8934</v>
+        <v>0.912</v>
       </c>
       <c r="D21" t="n">
-        <v>507.1132</v>
+        <v>507</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.181</v>
+        <v>2.3365</v>
       </c>
       <c r="F21" t="n">
-        <v>87205.6191</v>
+        <v>0.3176</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1832</v>
+        <v>0.1281</v>
       </c>
       <c r="H21" t="n">
-        <v>71983.50599999999</v>
+        <v>74396.9638</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2457</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1093,25 +1093,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0303</v>
+        <v>0.0175</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.3016</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.5272</v>
+        <v>0.5556</v>
       </c>
       <c r="F22" t="n">
-        <v>3.2474</v>
+        <v>0.293</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0516</v>
+        <v>0.1197</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7512</v>
+        <v>2.7541</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0679</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="23">
@@ -1122,25 +1122,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6404</v>
+        <v>0.641</v>
       </c>
       <c r="D23" t="n">
-        <v>458.5277</v>
+        <v>459</v>
       </c>
       <c r="E23" t="n">
-        <v>4.3641</v>
+        <v>2.1139</v>
       </c>
       <c r="F23" t="n">
-        <v>92676.80409999999</v>
+        <v>0.2924</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0868</v>
+        <v>0.1511</v>
       </c>
       <c r="H23" t="n">
-        <v>76425.2227</v>
+        <v>74989.17819999999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1492</v>
+        <v>0.2181</v>
       </c>
     </row>
   </sheetData>
